--- a/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2020-21.xlsx
+++ b/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2020-21.xlsx
@@ -584,22 +584,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>57.5%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -679,12 +679,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>57.5%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -694,17 +694,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>55.9</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>58.6</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -974,42 +974,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>47.3%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>60.8</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -1039,42 +1039,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1084,17 +1084,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>60.8</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53.2%</t>
+          <t>51.2%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -1559,17 +1559,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1579,22 +1579,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>53.2%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -1624,17 +1624,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1644,22 +1644,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>51.2%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1669,17 +1669,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -1884,17 +1884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trevor Ariza</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1904,22 +1904,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>49.1%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-5.8</t>
         </is>
       </c>
     </row>
@@ -1949,42 +1949,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>41.9%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1994,17 +1994,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Trevor Ariza</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2044,12 +2044,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>49.1%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>68.2</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-2.8</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>46.4%</t>
+          <t>47.8%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2124,17 +2124,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-17.1</t>
         </is>
       </c>
     </row>
@@ -2144,12 +2144,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>47.8%</t>
+          <t>46.4%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2189,17 +2189,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-17.1</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -2404,22 +2404,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2434,12 +2434,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>35.6%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>35.6%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>67.7</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>9.7</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2609,32 +2609,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>49.0%</t>
+          <t>48.3%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>60.9</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>10.5</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>49.0%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -3054,22 +3054,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>49.1%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>67.9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-9.9</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -3119,22 +3119,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>49.1%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3164,17 +3164,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>67.9</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>-9.9</t>
         </is>
       </c>
     </row>
@@ -3379,22 +3379,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Reggie Bullock</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>45.8%</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3429,12 +3429,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-7.6</t>
         </is>
       </c>
     </row>
@@ -3444,22 +3444,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Reggie Bullock</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>63.2</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3964,17 +3964,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3984,17 +3984,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -4029,17 +4029,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dennis Schroder</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4049,17 +4049,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4074,17 +4074,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>35.2%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4144,12 +4144,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>35.2%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -4874,22 +4874,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>41.8%</t>
+          <t>45.1%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>-9.9</t>
+          <t>15.4</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Marc Gasol</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4969,12 +4969,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>41.8%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,17 +4984,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>-9.9</t>
         </is>
       </c>
     </row>
@@ -5004,12 +5004,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>Marc Gasol</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>45.1%</t>
+          <t>47.9%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>73.9</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>15.4</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -5199,22 +5199,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Enes Freedom</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>35.5%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-6.5</t>
         </is>
       </c>
     </row>
@@ -5264,22 +5264,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Enes Freedom</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>43.1%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5314,12 +5314,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -5329,22 +5329,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5359,12 +5359,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>35.5%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>15.7</t>
         </is>
       </c>
     </row>
@@ -5589,22 +5589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5614,17 +5614,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>32.8%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
@@ -5654,17 +5654,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>30.9%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5699,17 +5699,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -5719,22 +5719,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5744,17 +5744,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>30.9%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>22.4</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6204,12 +6204,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>51.4%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-11.4</t>
+          <t>-9.4</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6249,12 +6249,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6269,12 +6269,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>51.4%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>-11.4</t>
         </is>
       </c>
     </row>
@@ -6759,42 +6759,42 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Nerlens Noel</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>54.8%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>67.6</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>-17.0</t>
         </is>
       </c>
     </row>
@@ -6824,42 +6824,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nerlens Noel</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>38.6%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>67.6</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-17.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -6889,37 +6889,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Will Barton</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>45.8%</t>
+          <t>47.6%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -7019,37 +7019,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Will Barton</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>47.6%</t>
+          <t>45.8%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>60.1</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -7279,22 +7279,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dewayne Dedmon</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>35.1%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7324,17 +7324,17 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>-19.1</t>
         </is>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Dwight Howard</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7369,17 +7369,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>35.5%</t>
+          <t>60.9%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-14.3</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Dwight Howard</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7434,17 +7434,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>60.9%</t>
+          <t>35.5%</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-14.3</t>
         </is>
       </c>
     </row>
@@ -7474,22 +7474,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Dewayne Dedmon</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>35.1%</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7519,17 +7519,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-19.1</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -7669,42 +7669,42 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Bobby Portis</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>29.4%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>-17.5</t>
         </is>
       </c>
     </row>
@@ -7734,42 +7734,42 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chandler Hutchison</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>85.7%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-18.9</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7809,12 +7809,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7824,17 +7824,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>34.9%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>-14.7</t>
         </is>
       </c>
     </row>
@@ -7864,42 +7864,42 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Carmelo Anthony</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>60.2</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -7929,42 +7929,42 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Carmelo Anthony</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>36.7%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>60.2</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>-8.4</t>
         </is>
       </c>
     </row>
@@ -7994,42 +7994,42 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>29.4%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-14.7</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -8059,42 +8059,42 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>34.9%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>10.9</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cassius Winston</t>
+          <t>Chandler Hutchison</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8154,12 +8154,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,17 +8169,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>10.5</t>
+          <t>-18.9</t>
         </is>
       </c>
     </row>
@@ -8189,42 +8189,42 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Cassius Winston</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-17.5</t>
+          <t>10.5</t>
         </is>
       </c>
     </row>
@@ -8709,12 +8709,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Jabari Parker</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8724,22 +8724,22 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-12.9</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ben McLemore</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8794,22 +8794,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>47.6%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>62.4</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-22.4</t>
+          <t>-13.8</t>
         </is>
       </c>
     </row>
@@ -8839,42 +8839,42 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>47.6%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-13.8</t>
+          <t>-9.5</t>
         </is>
       </c>
     </row>
@@ -8904,17 +8904,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Ben McLemore</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -8924,22 +8924,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8949,17 +8949,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>77.5</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>-22.4</t>
         </is>
       </c>
     </row>
@@ -8969,42 +8969,42 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Serge Ibaka</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>32.8%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>77.5</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>20.9</t>
         </is>
       </c>
     </row>
@@ -9034,12 +9034,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jabari Parker</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -9049,22 +9049,22 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-12.9</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -9099,17 +9099,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Serge Ibaka</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9129,12 +9129,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-9.5</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -9229,12 +9229,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9244,27 +9244,27 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>43.2%</t>
+          <t>35.9%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>63.3</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -9294,12 +9294,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9309,27 +9309,27 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>43.2%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-10.6</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -9369,12 +9369,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -9389,12 +9389,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>22.0%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>64.8</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>-9.2</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -9434,12 +9434,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -9454,12 +9454,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>22.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>64.8</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-9.2</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -9814,42 +9814,42 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -9879,42 +9879,42 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>29.6%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -9944,17 +9944,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nicolo Melli</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -9964,22 +9964,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9989,17 +9989,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>16.7</t>
         </is>
       </c>
     </row>
@@ -10009,42 +10009,42 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>51.4%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>17.6</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -10074,42 +10074,42 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Alfonzo McKinnie</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>52.1</t>
         </is>
       </c>
     </row>
@@ -10139,42 +10139,42 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>51.4%</t>
+          <t>21.1%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>-13.9</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Isaac Bonga</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -10224,22 +10224,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-26.0</t>
+          <t>15.2</t>
         </is>
       </c>
     </row>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Alfonzo McKinnie</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10354,42 +10354,42 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -10399,42 +10399,42 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Kevin Knox II</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-52.4</t>
+          <t>9.5</t>
         </is>
       </c>
     </row>
@@ -10464,42 +10464,42 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-23.3</t>
+          <t>17.6</t>
         </is>
       </c>
     </row>
@@ -10529,17 +10529,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -10559,12 +10559,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>42.1%</t>
+          <t>85.7%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-23.3</t>
         </is>
       </c>
     </row>
@@ -10594,12 +10594,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Nicolo Melli</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -10609,27 +10609,27 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -10659,42 +10659,42 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Kevin Knox II</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-13.9</t>
+          <t>-52.4</t>
         </is>
       </c>
     </row>
@@ -10724,17 +10724,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>Isaac Bonga</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -10744,22 +10744,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>29.6%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-26.0</t>
         </is>
       </c>
     </row>
@@ -10854,22 +10854,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Mamadi Diakite</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10879,17 +10879,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>52.0%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -10919,22 +10919,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Mamadi Diakite</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10944,17 +10944,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>59.1%</t>
+          <t>52.0%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -10984,22 +10984,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>E'Twaun Moore</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11009,17 +11009,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>39.3%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>65.4</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>-19.9</t>
         </is>
       </c>
     </row>
@@ -11049,22 +11049,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>E'Twaun Moore</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11074,17 +11074,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>81.8</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-19.9</t>
+          <t>24.8</t>
         </is>
       </c>
     </row>
@@ -11699,22 +11699,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Alex Len</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -11729,12 +11729,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11744,17 +11744,17 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -11764,22 +11764,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Alex Len</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -11794,12 +11794,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>11.7</t>
         </is>
       </c>
     </row>
@@ -11894,17 +11894,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Shaquille Harrison</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -11959,17 +11959,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -11984,12 +11984,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -12009,12 +12009,12 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>60.2</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-10.2</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -12024,17 +12024,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Shaquille Harrison</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -12049,17 +12049,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>21.1%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>60.2</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-10.2</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Semi Ojeleye</t>
+          <t>Luke Kornet</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -12424,12 +12424,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -12449,27 +12449,27 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>-43.6</t>
         </is>
       </c>
     </row>
@@ -12479,34 +12479,34 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bruno Fernando</t>
+          <t>Semi Ojeleye</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H187" t="inlineStr">
         <is>
           <t>33.3%</t>
@@ -12529,12 +12529,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>47.6</t>
         </is>
       </c>
     </row>
@@ -12544,22 +12544,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Axel Toupane</t>
+          <t>KZ Okpala</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>51.0</t>
         </is>
       </c>
     </row>
@@ -12609,62 +12609,62 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Josh Green</t>
+          <t>Jordan Nwora</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>26.5</t>
         </is>
       </c>
     </row>
@@ -12674,27 +12674,27 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Luke Kornet</t>
+          <t>Josh Green</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -12704,12 +12704,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-43.6</t>
+          <t>53.7</t>
         </is>
       </c>
     </row>
@@ -12739,42 +12739,42 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Anthony Gill</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>21.7%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>20.8</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -12804,22 +12804,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Jay Scrubb</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>-6.9</t>
         </is>
       </c>
     </row>
@@ -12869,17 +12869,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Yogi Ferrell</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -12889,22 +12889,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-40.6</t>
+          <t>50.4</t>
         </is>
       </c>
     </row>
@@ -12934,17 +12934,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Langston Galloway</t>
+          <t>Matt Thomas</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -12954,22 +12954,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>49.0</t>
         </is>
       </c>
     </row>
@@ -12999,42 +12999,42 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nathan Knight</t>
+          <t>Udoka Azubuike</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -13044,17 +13044,17 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-30.9</t>
+          <t>-46.3</t>
         </is>
       </c>
     </row>
@@ -13064,17 +13064,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Trent Forrest</t>
+          <t>Garrison Mathews</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -13114,12 +13114,12 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>46.5</t>
         </is>
       </c>
     </row>
@@ -13129,42 +13129,42 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Anthony Gill</t>
+          <t>Bruno Fernando</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>58.8</t>
         </is>
       </c>
     </row>
@@ -13194,17 +13194,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13214,22 +13214,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-48.1</t>
+          <t>16.5</t>
         </is>
       </c>
     </row>
@@ -13259,27 +13259,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Jay Scrubb</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -13289,12 +13289,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>-6.2</t>
         </is>
       </c>
     </row>
@@ -13324,22 +13324,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Langston Galloway</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13374,12 +13374,12 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -13389,22 +13389,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Udoka Azubuike</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -13439,12 +13439,12 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-46.3</t>
+          <t>-48.1</t>
         </is>
       </c>
     </row>
@@ -13454,34 +13454,34 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>KZ Okpala</t>
+          <t>Trent Forrest</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H202" t="inlineStr">
         <is>
           <t>33.3%</t>
@@ -13504,12 +13504,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>39.5</t>
         </is>
       </c>
     </row>
@@ -13519,22 +13519,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -13554,27 +13554,27 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-50.8</t>
         </is>
       </c>
     </row>
@@ -13584,22 +13584,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Elfrid Payton</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -13609,37 +13609,37 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -13649,42 +13649,42 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jordan Nwora</t>
+          <t>Miye Oni</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -13694,17 +13694,17 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>26.5</t>
+          <t>-26.6</t>
         </is>
       </c>
     </row>
@@ -13714,12 +13714,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Miye Oni</t>
+          <t>Nathan Knight</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -13729,22 +13729,22 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -13759,17 +13759,17 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>55.2</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-26.6</t>
+          <t>-30.9</t>
         </is>
       </c>
     </row>
@@ -13779,17 +13779,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Matt Thomas</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13809,32 +13809,32 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>-40.6</t>
         </is>
       </c>
     </row>
@@ -13844,17 +13844,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Yogi Ferrell</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13864,42 +13864,42 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>21.7%</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>20.8</t>
         </is>
       </c>
     </row>
@@ -13909,17 +13909,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Axel Toupane</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -13939,12 +13939,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -13954,17 +13954,17 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>43.3</t>
         </is>
       </c>
     </row>
@@ -13974,17 +13974,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Garrison Mathews</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -14004,7 +14004,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -14024,12 +14024,12 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.8</t>
         </is>
       </c>
     </row>
@@ -14039,42 +14039,42 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Elfrid Payton</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -14084,17 +14084,17 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-50.8</t>
+          <t>47.8</t>
         </is>
       </c>
     </row>
@@ -14169,22 +14169,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Obi Toppin</t>
+          <t>Elijah Bryant</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -14194,12 +14194,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -14219,12 +14219,12 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>-31.7</t>
+          <t>-29.0</t>
         </is>
       </c>
     </row>
@@ -14234,22 +14234,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Elijah Bryant</t>
+          <t>Obi Toppin</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -14259,12 +14259,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -14284,12 +14284,12 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>-29.0</t>
+          <t>-31.7</t>
         </is>
       </c>
     </row>
@@ -14364,22 +14364,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Chris Chiozza</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -14394,12 +14394,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14409,17 +14409,17 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>47.7</t>
         </is>
       </c>
     </row>
@@ -14429,22 +14429,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -14459,32 +14459,32 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>-9.3</t>
         </is>
       </c>
     </row>
@@ -14494,17 +14494,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Chris Chiozza</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -14544,12 +14544,12 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -14624,27 +14624,27 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Nassir Little</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -14654,12 +14654,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -14669,17 +14669,17 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>-59.1</t>
+          <t>47.2</t>
         </is>
       </c>
     </row>
@@ -14754,22 +14754,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Juwan Morgan</t>
+          <t>Nassir Little</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -14789,27 +14789,27 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>-59.1</t>
         </is>
       </c>
     </row>
@@ -14819,12 +14819,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Juwan Morgan</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14839,7 +14839,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -14869,12 +14869,12 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>40.4</t>
         </is>
       </c>
     </row>
